--- a/normalizacionBD.xlsx
+++ b/normalizacionBD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/Documents/GitHub/PruebaMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9760042-7B2C-6D48-A63B-2C9E6BA21930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9858AB-B6D2-F54D-B7D3-93A201FA374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{56DD2597-D774-B344-BE04-19C50E69A2F0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{56DD2597-D774-B344-BE04-19C50E69A2F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -589,12 +589,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C879B3C-32CB-694A-B0FA-2F857C362064}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection sqref="A1:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -950,19 +947,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1249,7 +1246,7 @@
       <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1260,7 +1257,7 @@
       <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1271,7 +1268,7 @@
       <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1282,7 +1279,6 @@
       <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="8"/>
       <c r="G26" s="2" t="s">
         <v>126</v>
       </c>
@@ -1299,7 +1295,7 @@
       <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1307,7 +1303,7 @@
       <c r="C29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -1318,7 +1314,7 @@
       <c r="C30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -1329,7 +1325,7 @@
       <c r="C31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -1340,7 +1336,7 @@
       <c r="C32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -1351,7 +1347,6 @@
       <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
@@ -1368,7 +1363,7 @@
       <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -1379,7 +1374,7 @@
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1390,7 +1385,7 @@
       <c r="C37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -1401,7 +1396,6 @@
       <c r="C38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="8"/>
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
@@ -1418,7 +1412,7 @@
       <c r="C40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -1429,7 +1423,7 @@
       <c r="C41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -1440,7 +1434,7 @@
       <c r="C42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -1451,7 +1445,6 @@
       <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="8"/>
       <c r="G43" s="2" t="s">
         <v>137</v>
       </c>
@@ -1468,7 +1461,7 @@
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1476,7 +1469,7 @@
       <c r="C46" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -1487,7 +1480,7 @@
       <c r="C47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -1498,12 +1491,11 @@
       <c r="C48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="8"/>
       <c r="G48" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
         <v>63</v>
       </c>
@@ -1514,36 +1506,34 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="5"/>
-      <c r="E52" s="8"/>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G52" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C53" s="4" t="s">
         <v>74</v>
       </c>
@@ -1554,115 +1544,114 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E57" s="7" t="s">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E57" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="2" t="s">
         <v>84</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E62" s="7" t="s">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E62" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C63" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="C64" s="6" t="s">
+    <row r="64" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C64" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="8"/>
       <c r="G64" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E65" s="4" t="s">
@@ -1673,8 +1662,7 @@
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C66" s="5"/>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -1685,15 +1673,15 @@
       <c r="C67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="68" spans="3:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G68" s="4" t="s">
@@ -1704,7 +1692,7 @@
       <c r="C69" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -1712,8 +1700,7 @@
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C70" s="5"/>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -1721,7 +1708,7 @@
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G71" s="2" t="s">
@@ -1729,7 +1716,7 @@
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G72" s="2" t="s">
@@ -1737,12 +1724,12 @@
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -1750,7 +1737,7 @@
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G75" s="2" t="s">
@@ -1758,7 +1745,6 @@
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E76" s="8"/>
       <c r="G76" s="2" t="s">
         <v>159</v>
       </c>
